--- a/nma_league_table_d3wn_formatted.xlsx
+++ b/nma_league_table_d3wn_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sethb\Documents\Career\freelance\IRG\assignments\network meta-analysis\network-meta-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{95C348A4-E244-4E05-8366-005B15773C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01A41BC-91B5-44EC-9FB1-732846F7F5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF4A374F-1938-4248-BC73-2A56DA897997}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF4A374F-1938-4248-BC73-2A56DA897997}"/>
   </bookViews>
   <sheets>
     <sheet name="nma_league_table_d3wn" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>FF.RS</t>
   </si>
@@ -34,9 +34,6 @@
     <t>VF.FF.RS</t>
   </si>
   <si>
-    <t>VF.RS</t>
-  </si>
-  <si>
     <t>FF</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>-0.3 (-0.68 , 0.08)</t>
   </si>
   <si>
-    <t>0.63 (-0.17 , 1.43)</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -67,25 +61,13 @@
     <t>-0.23 (-0.53 , 0.06)</t>
   </si>
   <si>
-    <t>0.7 (-0.07 , 1.48)</t>
-  </si>
-  <si>
     <t>0.05 (-0.34 , 0.45)</t>
   </si>
   <si>
     <t>-0.37 (-0.83 , 0.09)</t>
   </si>
   <si>
-    <t>0.56 (-0.29 , 1.41)</t>
-  </si>
-  <si>
     <t>-0.42 (-0.74 , -0.1)</t>
-  </si>
-  <si>
-    <t>0.51 (-0.26 , 1.28)</t>
-  </si>
-  <si>
-    <t>0.93 (0.12 , 1.75)</t>
   </si>
   <si>
     <t>Intervention Bundle</t>
@@ -980,20 +962,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE014A7-EB28-49EB-87CC-38569199E36D}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="6" width="18.375" customWidth="1"/>
+    <col min="1" max="5" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1007,108 +989,73 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
